--- a/quizsheets/m10_mada_model_improvement_student.xlsx
+++ b/quizsheets/m10_mada_model_improvement_student.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>When improving model performance, it is important to not overfit</t>
+          <t>When improving model performance, it is important to not overfit.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
